--- a/Visualizations/Interactive Resume/Interactive Resume Data.xlsx
+++ b/Visualizations/Interactive Resume/Interactive Resume Data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamr\Documents\GitHub\Visualizations\Interactive Resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam.reynolds/Documents/GitHub/Projects/Visualizations/Interactive Resume/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF563B08-344B-4391-871B-73F422676F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C469585-A8AA-B04A-BFF2-747A3B767FF1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17055" yWindow="8970" windowWidth="14400" windowHeight="8850" xr2:uid="{36519C5B-B072-4700-8336-CF78A2B489E9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{36519C5B-B072-4700-8336-CF78A2B489E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Experience" sheetId="1" r:id="rId1"/>
     <sheet name="Skills" sheetId="2" r:id="rId2"/>
     <sheet name="notes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +25,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>category</t>
   </si>
@@ -164,12 +168,6 @@
     <t>• Subconcentration: Data Analytics
 • Courses in Python, R, SQL, Databases, &amp; Statistics
 • 3.6 GPA</t>
-  </si>
-  <si>
-    <t>• Develop forecasts using time series and machine learning methods to predict future outcomes
-• Create and distribute executive level dashboards and reports using Tableau and Cognos
-• Work with data throughout the ETL process with APIs, SQL object creation and job scheduling
-• Perform ad-hoc analysis to support faculty and university initiatives</t>
   </si>
   <si>
     <t>• Emphasis: Actuarial Science
@@ -180,6 +178,19 @@
   </si>
   <si>
     <t>• Tutored high school and college math students in statistics, algebra, and calculus</t>
+  </si>
+  <si>
+    <t>Sr. Research Analyst</t>
+  </si>
+  <si>
+    <t>• Create and distribute executive level dashboards and reports using Tableau and Cognos
+• Work with data throughout the ETL process with APIs, SQL object creation and job scheduling
+• Perform ad-hoc analysis to support faculty and university initiatives</t>
+  </si>
+  <si>
+    <t>• Develop machine learning models and monitor effectiveness over time
+• Develop forecasts using time series and machine learning methods to predict future outcomes
+• Build reports and dashboards to visualize information</t>
   </si>
 </sst>
 </file>
@@ -681,23 +692,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A11812B-D75E-49B2-BC46-E29CFA7297D0}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.42578125" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -734,7 +745,7 @@
         <v>42125</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -743,7 +754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -766,7 +777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -789,7 +800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -800,11 +811,10 @@
         <v>43024</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">TODAY()</f>
-        <v>43762</v>
+        <v>43770</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -813,30 +823,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>42217</v>
+        <v>43770</v>
       </c>
       <c r="D6" s="2">
-        <v>42767</v>
+        <f ca="1">TODAY()</f>
+        <v>44236</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -844,14 +855,13 @@
         <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>43497</v>
+        <v>42217</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">TODAY()</f>
-        <v>43762</v>
+        <v>42767</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
@@ -860,27 +870,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43497</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43677</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="2">
         <v>43282</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <f ca="1">TODAY()</f>
-        <v>43762</v>
-      </c>
-      <c r="E8" t="s">
+        <v>44236</v>
+      </c>
+      <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -898,13 +931,13 @@
       <selection activeCell="A11" sqref="A11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -918,7 +951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -932,7 +965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -946,7 +979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -960,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -974,7 +1007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -988,7 +1021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1002,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1016,7 +1049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1030,7 +1063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1058,7 +1091,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
